--- a/Spatial_data/UVic/Harrop-Archibald 2008/Camas Meadow/Camas Meadow Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Camas Meadow/Camas Meadow Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Camas Meadow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F8B6A-117C-48E3-8325-AE243A8996F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991719C-2EEF-472E-97F7-4A169FEE1F9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1995" windowWidth="17400" windowHeight="10785" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Blowdown Area metadata" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -97,32 +97,29 @@
 E.g. 2008-11-29</t>
   </si>
   <si>
-    <t>18-06-2020</t>
-  </si>
-  <si>
     <t>CamasMeadow</t>
   </si>
   <si>
-    <t>Varied</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identification code of the polygon used to outline the camas meadow. </t>
   </si>
   <si>
-    <t>DominantSp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of the dominant species present. </t>
-  </si>
-  <si>
-    <t>Value: 'Herbaceous species - see oak project'</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Comments on the polygon.</t>
+  </si>
+  <si>
+    <t>14-12-2007</t>
+  </si>
+  <si>
+    <t>23-06-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,14 +149,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -224,15 +213,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Attribute name" xfId="1" xr:uid="{EF67C494-AC27-4B09-985E-08901D918A3A}"/>
@@ -552,7 +543,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,49 +554,49 @@
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -616,19 +607,19 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
@@ -636,7 +627,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -653,57 +644,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E11" s="11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -711,7 +700,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -719,7 +708,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
